--- a/output_offset.xlsx
+++ b/output_offset.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\_26_python\1_repo\pythonProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{819071CA-FB96-4DFD-B506-623FDF53766F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{271734CD-93F2-4691-A358-E1939F37DF85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-55800" yWindow="3660" windowWidth="14010" windowHeight="11775" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-44475" yWindow="5310" windowWidth="18660" windowHeight="7530" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
@@ -382,16 +382,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L3"/>
+  <dimension ref="A1:T3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -399,37 +401,61 @@
         <v>1</v>
       </c>
       <c r="C1">
-        <v>1100000000</v>
+        <v>1000000000</v>
       </c>
       <c r="D1">
-        <v>1150000000</v>
+        <v>2000000000</v>
       </c>
       <c r="E1">
-        <v>1200000000</v>
+        <v>3000000000</v>
       </c>
       <c r="F1">
-        <v>1250000000</v>
+        <v>4000000000</v>
       </c>
       <c r="G1">
-        <v>1300000000</v>
+        <v>5000000000</v>
       </c>
       <c r="H1">
-        <v>1400000000</v>
+        <v>6000000000</v>
       </c>
       <c r="I1">
-        <v>1500000000</v>
+        <v>7000000000</v>
       </c>
       <c r="J1">
-        <v>1600000000</v>
+        <v>8000000000</v>
       </c>
       <c r="K1">
-        <v>1800000000</v>
+        <v>9000000000</v>
       </c>
       <c r="L1">
-        <v>1990000000</v>
+        <v>10000000000</v>
+      </c>
+      <c r="M1">
+        <v>11000000000</v>
+      </c>
+      <c r="N1">
+        <v>12000000000</v>
+      </c>
+      <c r="O1">
+        <v>13000000000</v>
+      </c>
+      <c r="P1">
+        <v>14000000000</v>
+      </c>
+      <c r="Q1">
+        <v>15000000000</v>
+      </c>
+      <c r="R1">
+        <v>16000000000</v>
+      </c>
+      <c r="S1">
+        <v>17000000000</v>
+      </c>
+      <c r="T1">
+        <v>18000000000</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -437,37 +463,61 @@
         <v>3</v>
       </c>
       <c r="C2">
-        <v>-10.6</v>
+        <v>-20.5</v>
       </c>
       <c r="D2">
-        <v>-10.7</v>
+        <v>-20.7</v>
       </c>
       <c r="E2">
-        <v>-10.7</v>
+        <v>-20.7</v>
       </c>
       <c r="F2">
-        <v>-10.7</v>
+        <v>-20.7</v>
       </c>
       <c r="G2">
-        <v>-10.7</v>
+        <v>-20.7</v>
       </c>
       <c r="H2">
-        <v>-10.7</v>
+        <v>-20.8</v>
       </c>
       <c r="I2">
-        <v>-10.8</v>
+        <v>-20.7</v>
       </c>
       <c r="J2">
-        <v>-10.8</v>
+        <v>-20.7</v>
       </c>
       <c r="K2">
-        <v>-10.9</v>
+        <v>-20.8</v>
       </c>
       <c r="L2">
-        <v>-10.9</v>
+        <v>-20.7</v>
+      </c>
+      <c r="M2">
+        <v>-20.6</v>
+      </c>
+      <c r="N2">
+        <v>-20.8</v>
+      </c>
+      <c r="O2">
+        <v>-20.8</v>
+      </c>
+      <c r="P2">
+        <v>-20.7</v>
+      </c>
+      <c r="Q2">
+        <v>-20.6</v>
+      </c>
+      <c r="R2">
+        <v>-20.5</v>
+      </c>
+      <c r="S2">
+        <v>-20.399999999999999</v>
+      </c>
+      <c r="T2">
+        <v>-20.3</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -475,34 +525,58 @@
         <v>3</v>
       </c>
       <c r="C3">
-        <v>-10.6</v>
+        <v>-20.52</v>
       </c>
       <c r="D3">
-        <v>-10.7</v>
+        <v>-20.71</v>
       </c>
       <c r="E3">
-        <v>-10.7</v>
+        <v>-20.7</v>
       </c>
       <c r="F3">
-        <v>-10.7</v>
+        <v>-20.69</v>
       </c>
       <c r="G3">
-        <v>-10.7</v>
+        <v>-20.68</v>
       </c>
       <c r="H3">
-        <v>-10.7</v>
+        <v>-20.77</v>
       </c>
       <c r="I3">
-        <v>-10.8</v>
+        <v>-20.74</v>
       </c>
       <c r="J3">
-        <v>-10.8</v>
+        <v>-20.7</v>
       </c>
       <c r="K3">
-        <v>-10.9</v>
+        <v>-20.82</v>
       </c>
       <c r="L3">
-        <v>-10.9</v>
+        <v>-20.65</v>
+      </c>
+      <c r="M3">
+        <v>-20.64</v>
+      </c>
+      <c r="N3">
+        <v>-20.77</v>
+      </c>
+      <c r="O3">
+        <v>-20.8</v>
+      </c>
+      <c r="P3">
+        <v>-20.75</v>
+      </c>
+      <c r="Q3">
+        <v>-20.62</v>
+      </c>
+      <c r="R3">
+        <v>-20.51</v>
+      </c>
+      <c r="S3">
+        <v>-20.399999999999999</v>
+      </c>
+      <c r="T3">
+        <v>-20.350000000000001</v>
       </c>
     </row>
   </sheetData>

--- a/output_offset.xlsx
+++ b/output_offset.xlsx
@@ -1,66 +1,35 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\_26_python\1_repo\pythonProject\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{271734CD-93F2-4691-A358-E1939F37DF85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="-44475" yWindow="5310" windowWidth="18660" windowHeight="7530" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet" sheetId="1" r:id="rId1"/>
-    <sheet name="OFFSET" sheetId="2" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="OFFSET" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="5">
-  <si>
-    <t>frequency</t>
-  </si>
-  <si>
-    <t>Hz</t>
-  </si>
-  <si>
-    <t>input offset</t>
-  </si>
-  <si>
-    <t>dB</t>
-  </si>
-  <si>
-    <t>output offset</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="1">
     <font>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <color theme="1"/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="맑은 고딕"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -79,21 +48,80 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="표준" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -381,219 +409,131 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:T3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="15" customWidth="1"/>
+    <col width="15" customWidth="1" min="1" max="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.4">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1">
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>frequency</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Hz</t>
+        </is>
+      </c>
+      <c r="C1" t="n">
         <v>1000000000</v>
       </c>
-      <c r="D1">
+      <c r="D1" t="n">
         <v>2000000000</v>
       </c>
-      <c r="E1">
+      <c r="E1" t="n">
         <v>3000000000</v>
       </c>
-      <c r="F1">
+      <c r="F1" t="n">
         <v>4000000000</v>
       </c>
-      <c r="G1">
+      <c r="G1" t="n">
         <v>5000000000</v>
       </c>
-      <c r="H1">
+      <c r="H1" t="n">
         <v>6000000000</v>
       </c>
-      <c r="I1">
-        <v>7000000000</v>
-      </c>
-      <c r="J1">
-        <v>8000000000</v>
-      </c>
-      <c r="K1">
-        <v>9000000000</v>
-      </c>
-      <c r="L1">
-        <v>10000000000</v>
-      </c>
-      <c r="M1">
-        <v>11000000000</v>
-      </c>
-      <c r="N1">
-        <v>12000000000</v>
-      </c>
-      <c r="O1">
-        <v>13000000000</v>
-      </c>
-      <c r="P1">
-        <v>14000000000</v>
-      </c>
-      <c r="Q1">
-        <v>15000000000</v>
-      </c>
-      <c r="R1">
-        <v>16000000000</v>
-      </c>
-      <c r="S1">
-        <v>17000000000</v>
-      </c>
-      <c r="T1">
-        <v>18000000000</v>
-      </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.4">
-      <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2">
-        <v>-20.5</v>
-      </c>
-      <c r="D2">
-        <v>-20.7</v>
-      </c>
-      <c r="E2">
-        <v>-20.7</v>
-      </c>
-      <c r="F2">
-        <v>-20.7</v>
-      </c>
-      <c r="G2">
-        <v>-20.7</v>
-      </c>
-      <c r="H2">
-        <v>-20.8</v>
-      </c>
-      <c r="I2">
-        <v>-20.7</v>
-      </c>
-      <c r="J2">
-        <v>-20.7</v>
-      </c>
-      <c r="K2">
-        <v>-20.8</v>
-      </c>
-      <c r="L2">
-        <v>-20.7</v>
-      </c>
-      <c r="M2">
-        <v>-20.6</v>
-      </c>
-      <c r="N2">
-        <v>-20.8</v>
-      </c>
-      <c r="O2">
-        <v>-20.8</v>
-      </c>
-      <c r="P2">
-        <v>-20.7</v>
-      </c>
-      <c r="Q2">
-        <v>-20.6</v>
-      </c>
-      <c r="R2">
-        <v>-20.5</v>
-      </c>
-      <c r="S2">
-        <v>-20.399999999999999</v>
-      </c>
-      <c r="T2">
-        <v>-20.3</v>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>input offset</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>dB</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>-41.2</v>
+      </c>
+      <c r="D2" t="n">
+        <v>-41.2</v>
+      </c>
+      <c r="E2" t="n">
+        <v>-41.2</v>
+      </c>
+      <c r="F2" t="n">
+        <v>-41.2</v>
+      </c>
+      <c r="G2" t="n">
+        <v>-41.2</v>
+      </c>
+      <c r="H2" t="n">
+        <v>-41.3</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.4">
-      <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3">
-        <v>-20.52</v>
-      </c>
-      <c r="D3">
-        <v>-20.71</v>
-      </c>
-      <c r="E3">
-        <v>-20.7</v>
-      </c>
-      <c r="F3">
-        <v>-20.69</v>
-      </c>
-      <c r="G3">
-        <v>-20.68</v>
-      </c>
-      <c r="H3">
-        <v>-20.77</v>
-      </c>
-      <c r="I3">
-        <v>-20.74</v>
-      </c>
-      <c r="J3">
-        <v>-20.7</v>
-      </c>
-      <c r="K3">
-        <v>-20.82</v>
-      </c>
-      <c r="L3">
-        <v>-20.65</v>
-      </c>
-      <c r="M3">
-        <v>-20.64</v>
-      </c>
-      <c r="N3">
-        <v>-20.77</v>
-      </c>
-      <c r="O3">
-        <v>-20.8</v>
-      </c>
-      <c r="P3">
-        <v>-20.75</v>
-      </c>
-      <c r="Q3">
-        <v>-20.62</v>
-      </c>
-      <c r="R3">
-        <v>-20.51</v>
-      </c>
-      <c r="S3">
-        <v>-20.399999999999999</v>
-      </c>
-      <c r="T3">
-        <v>-20.350000000000001</v>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>output offset</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>dB</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>-44.32</v>
+      </c>
+      <c r="D3" t="n">
+        <v>-44.33</v>
+      </c>
+      <c r="E3" t="n">
+        <v>-44.34</v>
+      </c>
+      <c r="F3" t="n">
+        <v>-44.36</v>
+      </c>
+      <c r="G3" t="n">
+        <v>-44.38</v>
+      </c>
+      <c r="H3" t="n">
+        <v>-44.37</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>